--- a/data/comparison.xlsx
+++ b/data/comparison.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Crystal\Desktop\desktop\R\Book\mpsi-data-training\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48112476-E3C9-42EA-AA25-F6ED0C219A49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57EC4339-1243-42E6-A23B-01CAD049D1BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{09C4DCFF-B5B4-4579-9423-97F222AE2FFC}"/>
   </bookViews>
@@ -256,9 +256,6 @@
     <t xml:space="preserve">You do not have to speak to security as NIH acknowledges that data security fall within the purview of Institutional IRB (while the project is active) and the repository (once data is shared). </t>
   </si>
   <si>
-    <t>Describe informed consent as well as how you well protect privacy and confidentiality "consistent with applicable federal, Tribal, state, and local laws, regulations, and policies"</t>
-  </si>
-  <si>
     <t>Will there be any restrictions on data collected from human subjects?
 "Any restrictions imposed by federal, Tribal, or state laws, regulations, or policies, or existing or anticipated agreements."
 Any limitations should be communicated to both the data repository as well as communicated in the Data Management and Sharing Plan for review.</t>
@@ -266,6 +263,9 @@
   <si>
     <t>How will you keep data secure on site during the project. 
 Consider IRB requirements.</t>
+  </si>
+  <si>
+    <t>Describe informed consent as well as how you will protect privacy and confidentiality "consistent with applicable federal, Tribal, state, and local laws, regulations, and policies"</t>
   </si>
 </sst>
 </file>
@@ -842,8 +842,8 @@
   <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A19" sqref="A19"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1085,7 +1085,7 @@
         <v>39</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D15" s="15" t="s">
         <v>17</v>
@@ -1117,7 +1117,7 @@
         <v>41</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D17" s="15" t="s">
         <v>18</v>
@@ -1145,7 +1145,7 @@
     </row>
     <row r="19" spans="1:5" s="1" customFormat="1" ht="374.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B19" s="15" t="s">
         <v>41</v>

--- a/data/comparison.xlsx
+++ b/data/comparison.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Crystal\Desktop\desktop\R\Book\mpsi-data-training\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57EC4339-1243-42E6-A23B-01CAD049D1BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{695E3A45-28D3-4119-9DD0-8FC5FC5E567E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{09C4DCFF-B5B4-4579-9423-97F222AE2FFC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{09C4DCFF-B5B4-4579-9423-97F222AE2FFC}"/>
   </bookViews>
   <sheets>
     <sheet name="table" sheetId="3" r:id="rId1"/>
@@ -228,13 +228,6 @@
 Datasets should be discoverable and citable (ex: metadata and DOI).</t>
   </si>
   <si>
-    <t>Examples include:
-Methodology and procedures used to collect the data
-Data labels
-Definitions of variables
-Any other information necessary to reproduce and understand the data</t>
-  </si>
-  <si>
     <t>Do you have any data covered by FERPA/HIPAA that doesn't allow data sharing?
 Do you work with any partners that do not allow you to share data (ex: School districts, Tribal regulations)?
 Are you working with proprietary data?</t>
@@ -266,6 +259,10 @@
   </si>
   <si>
     <t>Describe informed consent as well as how you will protect privacy and confidentiality "consistent with applicable federal, Tribal, state, and local laws, regulations, and policies"</t>
+  </si>
+  <si>
+    <t>Examples include:
+Methodology and procedures used to collect the data, Data labels, Definitions of variables, Any other information necessary to reproduce and understand the data</t>
   </si>
 </sst>
 </file>
@@ -842,16 +839,16 @@
   <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C17" sqref="C17"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="5" width="30.7265625" customWidth="1"/>
+    <col min="1" max="5" width="30.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>25</v>
       </c>
@@ -868,7 +865,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
@@ -885,7 +882,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="1" customFormat="1" ht="173.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" s="1" customFormat="1" ht="173.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>35</v>
       </c>
@@ -896,7 +893,7 @@
       <c r="D3" s="9"/>
       <c r="E3" s="10"/>
     </row>
-    <row r="4" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>1</v>
       </c>
@@ -913,7 +910,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="1" customFormat="1" ht="351.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" s="1" customFormat="1" ht="351.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>36</v>
       </c>
@@ -930,7 +927,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>2</v>
       </c>
@@ -947,7 +944,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:5" s="1" customFormat="1" ht="164.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" s="1" customFormat="1" ht="164.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>37</v>
       </c>
@@ -962,7 +959,7 @@
       </c>
       <c r="E7" s="10"/>
     </row>
-    <row r="8" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>3</v>
       </c>
@@ -979,7 +976,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:5" s="1" customFormat="1" ht="290" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" s="1" customFormat="1" ht="315" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
         <v>40</v>
       </c>
@@ -987,14 +984,14 @@
         <v>49</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="D9" s="15" t="s">
         <v>44</v>
       </c>
       <c r="E9" s="16"/>
     </row>
-    <row r="10" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
         <v>4</v>
       </c>
@@ -1011,7 +1008,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:5" s="1" customFormat="1" ht="156" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" s="1" customFormat="1" ht="156" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
         <v>29</v>
       </c>
@@ -1026,7 +1023,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
         <v>5</v>
       </c>
@@ -1043,7 +1040,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:5" s="1" customFormat="1" ht="326.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" s="1" customFormat="1" ht="326.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
         <v>48</v>
       </c>
@@ -1060,7 +1057,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:5" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
         <v>6</v>
       </c>
@@ -1077,47 +1074,47 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:5" s="1" customFormat="1" ht="165" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" s="1" customFormat="1" ht="165" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B15" s="15" t="s">
         <v>39</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D15" s="15" t="s">
         <v>17</v>
       </c>
       <c r="E15" s="16"/>
     </row>
-    <row r="16" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" s="1" customFormat="1" ht="374.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="14" t="s">
         <v>54</v>
-      </c>
-      <c r="B16" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="D16" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="E16" s="13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" s="1" customFormat="1" ht="374.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="14" t="s">
-        <v>55</v>
       </c>
       <c r="B17" s="15" t="s">
         <v>41</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D17" s="15" t="s">
         <v>18</v>
@@ -1126,9 +1123,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B18" s="12" t="s">
         <v>12</v>
@@ -1143,15 +1140,15 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:5" s="1" customFormat="1" ht="374.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" s="1" customFormat="1" ht="374.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B19" s="15" t="s">
         <v>41</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D19" s="15" t="s">
         <v>18</v>
@@ -1160,7 +1157,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
         <v>7</v>
       </c>
@@ -1177,7 +1174,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:5" s="1" customFormat="1" ht="289.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" s="1" customFormat="1" ht="289.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
         <v>9</v>
       </c>
@@ -1194,7 +1191,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
         <v>8</v>
       </c>
@@ -1211,7 +1208,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:5" s="1" customFormat="1" ht="216" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" s="1" customFormat="1" ht="216" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="17" t="s">
         <v>10</v>
       </c>
@@ -1236,23 +1233,23 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.6328125" customWidth="1"/>
-    <col min="2" max="2" width="17.26953125" customWidth="1"/>
-    <col min="3" max="3" width="14.54296875" customWidth="1"/>
-    <col min="4" max="4" width="14.7265625" customWidth="1"/>
+    <col min="1" max="1" width="18.5703125" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" customWidth="1"/>
     <col min="5" max="5" width="15" customWidth="1"/>
-    <col min="6" max="6" width="16.453125" customWidth="1"/>
-    <col min="7" max="7" width="15.453125" customWidth="1"/>
-    <col min="8" max="8" width="18.7265625" customWidth="1"/>
-    <col min="9" max="9" width="15.453125" customWidth="1"/>
+    <col min="6" max="6" width="16.42578125" customWidth="1"/>
+    <col min="7" max="7" width="15.42578125" customWidth="1"/>
+    <col min="8" max="8" width="18.7109375" customWidth="1"/>
+    <col min="9" max="9" width="15.42578125" customWidth="1"/>
     <col min="10" max="10" width="13" customWidth="1"/>
-    <col min="11" max="11" width="14.6328125" customWidth="1"/>
-    <col min="12" max="12" width="17.1796875" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" customWidth="1"/>
+    <col min="12" max="12" width="17.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="56.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1275,10 +1272,10 @@
         <v>6</v>
       </c>
       <c r="I1" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J1" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K1" s="11" t="s">
         <v>7</v>
@@ -1287,7 +1284,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -1295,20 +1292,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>20</v>
       </c>
